--- a/fifty_one/measurements/test images.xlsx
+++ b/fifty_one/measurements/test images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7017e80123f7d82/research/thesis and paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilbenor/Documents/code projects/msc/counting_research_algorithms/fifty_one/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="966" documentId="11_F25DC773A252ABDACC10483AE91A501E5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DEF751F-9D37-407A-A1B7-04065FFA8EB7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14088511-CD80-8B44-AECF-A511D7D57A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,10 +538,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -810,34 +806,34 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" customWidth="1"/>
-    <col min="16" max="16" width="4.21875" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="4.1640625" customWidth="1"/>
     <col min="17" max="17" width="2" customWidth="1"/>
     <col min="18" max="18" width="10.33203125" customWidth="1"/>
-    <col min="19" max="19" width="21.109375" customWidth="1"/>
-    <col min="20" max="20" width="19.77734375" customWidth="1"/>
-    <col min="21" max="21" width="16.5546875" customWidth="1"/>
-    <col min="22" max="22" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.77734375" customWidth="1"/>
-    <col min="24" max="24" width="16.88671875" customWidth="1"/>
-    <col min="25" max="25" width="25.44140625" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" customWidth="1"/>
+    <col min="20" max="20" width="19.83203125" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" customWidth="1"/>
+    <col min="24" max="24" width="16.83203125" customWidth="1"/>
+    <col min="25" max="25" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -863,7 +859,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -885,7 +881,7 @@
         <v>GX010067_625</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -906,7 +902,7 @@
         <v>GX010068_666</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -928,7 +924,7 @@
         <v>GX010068_795</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -950,7 +946,7 @@
         <v>GX010069_191</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -972,7 +968,7 @@
         <v>GX010069_796</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -997,7 +993,7 @@
         <v>GX010071_444</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1022,7 +1018,7 @@
         <v>GX010101_173</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1047,7 +1043,7 @@
         <v>GX010102_1396</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -1072,7 +1068,7 @@
         <v>GX010102_165</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1097,7 +1093,7 @@
         <v>GX010105_816</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1122,7 +1118,7 @@
         <v>GX010128_52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1147,7 +1143,7 @@
         <v>GX010128_54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1172,7 +1168,7 @@
         <v>GX010129_454</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1197,7 +1193,7 @@
         <v>GX010139_2020</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1222,7 +1218,7 @@
         <v>GX010144_3581</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1247,7 +1243,7 @@
         <v>GX010145_2273</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1259,7 +1255,7 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="F18" s="1">
         <v>12</v>
@@ -1272,7 +1268,7 @@
         <v>GX010152_378</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1297,7 +1293,7 @@
         <v>GX010154_4137</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -1318,7 +1314,7 @@
         <v>GX010154_933</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -1339,7 +1335,7 @@
         <v>GX010155_1170</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1366,7 +1362,7 @@
         <v>GX010155_219</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1387,7 +1383,7 @@
         <v>GX010156_629</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1414,7 +1410,7 @@
         <v>GX010156_662</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1435,7 +1431,7 @@
         <v>GX010157_2240</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1456,7 +1452,7 @@
         <v>GX010157_2259</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1477,7 +1473,7 @@
         <v>GX010157_2554</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -1504,7 +1500,7 @@
         <v>GX010157_2582</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -1531,7 +1527,7 @@
         <v>GX010157_2665</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1552,7 +1548,7 @@
         <v>GX010157_4575</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1579,7 +1575,7 @@
         <v>GX010157_4691</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1606,7 +1602,7 @@
         <v>GX010157_5053</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1627,7 +1623,7 @@
         <v>GX010157_5205</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1654,7 +1650,7 @@
         <v>GX010157_883</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1679,7 +1675,7 @@
         <v>GX010158_1158</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1700,7 +1696,7 @@
         <v>GX010161_2267</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1721,7 +1717,7 @@
         <v>GX010161_676</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1748,7 +1744,7 @@
         <v>GX010161_9576</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1775,7 +1771,7 @@
         <v>GX010162_2037</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1796,7 +1792,7 @@
         <v>GX010162_2230</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1817,7 +1813,7 @@
         <v>GX010162_2433</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1844,7 +1840,7 @@
         <v>GX010162_2604</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1871,7 +1867,7 @@
         <v>GX010162_3958</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1892,7 +1888,7 @@
         <v>GX010162_4175</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1919,7 +1915,7 @@
         <v>GX010162_687</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1946,7 +1942,7 @@
         <v>GX010162_927</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +1969,7 @@
         <v>GX010163_798</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1994,7 +1990,7 @@
         <v>GX010163_864</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -2015,7 +2011,7 @@
         <v>GX010169_1249</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -2042,7 +2038,7 @@
         <v>GX010170_1546</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2063,7 +2059,7 @@
         <v>GX010171_1483</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2084,7 +2080,7 @@
         <v>GX010173_922</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2109,7 +2105,7 @@
         <v>GX010174_1236</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2130,7 +2126,7 @@
         <v>GX010174_2266</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2155,7 +2151,7 @@
         <v>GX010174_2291</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2176,7 +2172,7 @@
         <v>GX010174_790</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2201,7 +2197,7 @@
         <v>GX010175_2644</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2222,7 +2218,7 @@
         <v>GX010175_3372</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2243,7 +2239,7 @@
         <v>GX010175_852</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2268,7 +2264,7 @@
         <v>GX010175_865</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2293,7 +2289,7 @@
         <v>GX010176_1622</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2314,7 +2310,7 @@
         <v>GX010177_3047</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -2339,7 +2335,7 @@
         <v>GX010177_454</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2364,7 +2360,7 @@
         <v>GX010178_2118</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>GX010178_2258</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2406,7 +2402,7 @@
         <v>GX010178_3604</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2431,7 +2427,7 @@
         <v>GX010178_3987</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2456,7 +2452,7 @@
         <v>GX010179_1697</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -2481,7 +2477,7 @@
         <v>GX010179_3535</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -2502,7 +2498,7 @@
         <v>GX010179_3927</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>63</v>
       </c>
@@ -2527,7 +2523,7 @@
         <v>GX010179_3942</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -2552,7 +2548,7 @@
         <v>GX010179_869</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -2577,7 +2573,7 @@
         <v>GX010180_1563</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -2602,7 +2598,7 @@
         <v>GX010180_1788</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>63</v>
       </c>
@@ -2627,7 +2623,7 @@
         <v>GX010181_1542</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -2652,7 +2648,7 @@
         <v>GX010182_1468</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -2677,7 +2673,7 @@
         <v>GX010182_1822</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>63</v>
       </c>
@@ -2702,7 +2698,7 @@
         <v>GX010182_894</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>63</v>
       </c>
@@ -2727,7 +2723,7 @@
         <v>GX010183_1633</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>63</v>
       </c>
@@ -2752,7 +2748,7 @@
         <v>GX010183_2852</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>63</v>
       </c>
@@ -2777,7 +2773,7 @@
         <v>GX010183_685</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>63</v>
       </c>
@@ -2802,7 +2798,7 @@
         <v>GX010184_1969</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -2827,7 +2823,7 @@
         <v>GX010184_890</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -2852,7 +2848,7 @@
         <v>GX010073_1014</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -2877,7 +2873,7 @@
         <v>GX010073_695</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -2902,7 +2898,7 @@
         <v>GX010077_237</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>70</v>
       </c>
@@ -2927,7 +2923,7 @@
         <v>GX010080_2283</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>70</v>
       </c>
@@ -2952,7 +2948,7 @@
         <v>GX010080_2640</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>70</v>
       </c>
@@ -2977,7 +2973,7 @@
         <v>GX010080_2954</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>70</v>
       </c>
@@ -3002,7 +2998,7 @@
         <v>GX010080_3366</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -3027,7 +3023,7 @@
         <v>GX010080_3392</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>70</v>
       </c>
@@ -3052,7 +3048,7 @@
         <v>GX010082_1070</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -3077,7 +3073,7 @@
         <v>GX010082_3137</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>70</v>
       </c>
@@ -3102,7 +3098,7 @@
         <v>GX010082_59</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -3127,7 +3123,7 @@
         <v>GX010082_796</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>70</v>
       </c>
@@ -3152,7 +3148,7 @@
         <v>GX010084_1748</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>70</v>
       </c>
@@ -3177,7 +3173,7 @@
         <v>GX010084_344</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -3202,7 +3198,7 @@
         <v>GX010085_3610</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>70</v>
       </c>
@@ -3227,7 +3223,7 @@
         <v>GX010085_3738</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>70</v>
       </c>
@@ -3252,7 +3248,7 @@
         <v>GX010088_3712</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>70</v>
       </c>
@@ -3277,7 +3273,7 @@
         <v>GX010088_4364</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>70</v>
       </c>
@@ -3302,7 +3298,7 @@
         <v>GX010089_236</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>70</v>
       </c>
@@ -3327,7 +3323,7 @@
         <v>GX010090_1852</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -3352,7 +3348,7 @@
         <v>GX010091_149</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>71</v>
       </c>
@@ -3377,7 +3373,7 @@
         <v>GX010094_1258</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>71</v>
       </c>
@@ -3402,7 +3398,7 @@
         <v>GX010094_129</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>71</v>
       </c>
@@ -3427,7 +3423,7 @@
         <v>GX010094_2312</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>71</v>
       </c>
@@ -3452,7 +3448,7 @@
         <v>GX010094_430</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>71</v>
       </c>
@@ -3477,7 +3473,7 @@
         <v>GX010096_1571</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>71</v>
       </c>
@@ -3502,7 +3498,7 @@
         <v>GX010097_1080</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>71</v>
       </c>
@@ -3527,7 +3523,7 @@
         <v>GX010097_1651</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>71</v>
       </c>
@@ -3552,7 +3548,7 @@
         <v>GX010097_1870</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>71</v>
       </c>
@@ -3577,7 +3573,7 @@
         <v>GX010097_528</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>70</v>
       </c>
@@ -3595,7 +3591,7 @@
         <v>GX010088_2904</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>70</v>
       </c>

--- a/fifty_one/measurements/test images.xlsx
+++ b/fifty_one/measurements/test images.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilbenor/Documents/code projects/msc/counting_research_algorithms/fifty_one/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14088511-CD80-8B44-AECF-A511D7D57A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1F512F-4153-DA44-A11E-B4F301E7FAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">luminance(cd/m²) </t>
   </si>
   <si>
-    <t>heigtht(mm)</t>
-  </si>
-  <si>
     <t>pond</t>
   </si>
   <si>
@@ -456,6 +453,9 @@
   </si>
   <si>
     <t>file_name_new</t>
+  </si>
+  <si>
+    <t>height(mm)</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -835,10 +835,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -847,24 +847,24 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2">
@@ -874,7 +874,7 @@
         <v>650</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("GX010", TEXT(G2, "0"))</f>
@@ -883,10 +883,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>79.393596403598806</v>
@@ -895,7 +895,7 @@
         <v>650</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H66" si="0">CONCATENATE("GX010", TEXT(G3, "0"))</f>
@@ -904,10 +904,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -917,7 +917,7 @@
         <v>650</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -926,10 +926,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -939,7 +939,7 @@
         <v>650</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -948,10 +948,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
@@ -961,7 +961,7 @@
         <v>650</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -970,10 +970,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7">
@@ -986,7 +986,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -995,10 +995,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -1011,7 +1011,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -1036,7 +1036,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -1086,7 +1086,7 @@
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1095,10 +1095,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -1161,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -1186,7 +1186,7 @@
         <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -1211,7 +1211,7 @@
         <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -1236,7 +1236,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -1261,7 +1261,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
@@ -1286,7 +1286,7 @@
         <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1307,7 +1307,7 @@
         <v>415</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1316,10 +1316,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1328,7 +1328,7 @@
         <v>415</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
         <v>2.8</v>
@@ -1355,7 +1355,7 @@
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1376,7 +1376,7 @@
         <v>415</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3">
         <v>3.6</v>
@@ -1403,7 +1403,7 @@
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1424,7 +1424,7 @@
         <v>415</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1445,7 +1445,7 @@
         <v>415</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1466,7 +1466,7 @@
         <v>415</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1">
         <v>2.63</v>
@@ -1493,7 +1493,7 @@
         <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1">
         <v>3.6</v>
@@ -1520,7 +1520,7 @@
         <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1529,10 +1529,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1541,7 +1541,7 @@
         <v>415</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1">
         <v>3.5</v>
@@ -1568,7 +1568,7 @@
         <v>156</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1577,10 +1577,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
         <v>2.5</v>
@@ -1595,7 +1595,7 @@
         <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>415</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1">
         <v>1.9</v>
@@ -1643,7 +1643,7 @@
         <v>131</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
@@ -1668,7 +1668,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1689,7 +1689,7 @@
         <v>400</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1710,7 +1710,7 @@
         <v>400</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <v>2.9</v>
@@ -1737,7 +1737,7 @@
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
         <v>2.8</v>
@@ -1764,7 +1764,7 @@
         <v>67</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1785,7 +1785,7 @@
         <v>400</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H40" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1806,7 +1806,7 @@
         <v>400</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
         <v>2.08</v>
@@ -1833,7 +1833,7 @@
         <v>86</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
         <v>5.4</v>
@@ -1860,7 +1860,7 @@
         <v>131</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H43" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -1881,7 +1881,7 @@
         <v>400</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1">
         <v>5.0999999999999996</v>
@@ -1908,7 +1908,7 @@
         <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H45" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1">
         <v>3</v>
@@ -1935,7 +1935,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H46" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="1">
         <v>3.5</v>
@@ -1962,7 +1962,7 @@
         <v>26</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H47" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -1983,7 +1983,7 @@
         <v>400</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H48" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -2004,7 +2004,7 @@
         <v>370</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H49" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2013,10 +2013,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1">
         <v>3.04</v>
@@ -2031,7 +2031,7 @@
         <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H50" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -2052,7 +2052,7 @@
         <v>370</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H51" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2061,10 +2061,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -2073,7 +2073,7 @@
         <v>370</v>
       </c>
       <c r="G52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H52" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
@@ -2098,7 +2098,7 @@
         <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H53" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -2119,7 +2119,7 @@
         <v>370</v>
       </c>
       <c r="G54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H54" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1">
@@ -2144,7 +2144,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H55" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -2165,7 +2165,7 @@
         <v>370</v>
       </c>
       <c r="G56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H56" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1">
@@ -2190,7 +2190,7 @@
         <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2199,10 +2199,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -2211,7 +2211,7 @@
         <v>385</v>
       </c>
       <c r="G58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H58" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -2232,7 +2232,7 @@
         <v>385</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H59" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1">
@@ -2257,7 +2257,7 @@
         <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H60" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2266,10 +2266,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1">
@@ -2282,7 +2282,7 @@
         <v>54</v>
       </c>
       <c r="G61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H61" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -2303,7 +2303,7 @@
         <v>385</v>
       </c>
       <c r="G62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H62" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2312,10 +2312,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1">
@@ -2328,7 +2328,7 @@
         <v>15</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H63" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2337,10 +2337,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1">
@@ -2353,7 +2353,7 @@
         <v>70</v>
       </c>
       <c r="G64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H64" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -2374,7 +2374,7 @@
         <v>455</v>
       </c>
       <c r="G65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -2395,7 +2395,7 @@
         <v>455</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H66" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2404,10 +2404,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1">
@@ -2420,7 +2420,7 @@
         <v>132</v>
       </c>
       <c r="G67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H67" s="4" t="str">
         <f t="shared" ref="H67:H115" si="1">CONCATENATE("GX010", TEXT(G67, "0"))</f>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1">
@@ -2445,7 +2445,7 @@
         <v>56</v>
       </c>
       <c r="G68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H68" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1">
@@ -2470,7 +2470,7 @@
         <v>117</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H69" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2479,10 +2479,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -2491,7 +2491,7 @@
         <v>455</v>
       </c>
       <c r="G70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H70" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1">
@@ -2516,7 +2516,7 @@
         <v>131</v>
       </c>
       <c r="G71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H71" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1">
@@ -2541,7 +2541,7 @@
         <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H72" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1">
@@ -2566,7 +2566,7 @@
         <v>52</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H73" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1">
@@ -2591,7 +2591,7 @@
         <v>59</v>
       </c>
       <c r="G74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H74" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2600,10 +2600,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1">
@@ -2616,7 +2616,7 @@
         <v>51</v>
       </c>
       <c r="G75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H75" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1">
@@ -2641,7 +2641,7 @@
         <v>48</v>
       </c>
       <c r="G76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H76" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1">
@@ -2666,7 +2666,7 @@
         <v>60</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H77" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2675,10 +2675,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1">
@@ -2691,7 +2691,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H78" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1">
@@ -2716,7 +2716,7 @@
         <v>54</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1">
@@ -2741,7 +2741,7 @@
         <v>95</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H80" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2750,10 +2750,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1">
@@ -2766,7 +2766,7 @@
         <v>22</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2775,10 +2775,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1">
@@ -2791,7 +2791,7 @@
         <v>65</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1">
@@ -2816,7 +2816,7 @@
         <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H83" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84">
@@ -2841,7 +2841,7 @@
         <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H84" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85">
@@ -2866,7 +2866,7 @@
         <v>23</v>
       </c>
       <c r="G85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H85" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86">
@@ -2891,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H86" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2900,10 +2900,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87">
@@ -2916,7 +2916,7 @@
         <v>76</v>
       </c>
       <c r="G87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H87" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2925,10 +2925,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88">
@@ -2941,7 +2941,7 @@
         <v>88</v>
       </c>
       <c r="G88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H88" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89">
@@ -2966,7 +2966,7 @@
         <v>98</v>
       </c>
       <c r="G89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H89" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2975,10 +2975,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90">
@@ -2991,7 +2991,7 @@
         <v>112</v>
       </c>
       <c r="G90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H90" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91">
@@ -3016,7 +3016,7 @@
         <v>113</v>
       </c>
       <c r="G91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H91" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92">
@@ -3041,7 +3041,7 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H92" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1">
@@ -3066,7 +3066,7 @@
         <v>104</v>
       </c>
       <c r="G93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H93" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3075,10 +3075,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1">
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H94" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3100,10 +3100,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95">
@@ -3116,7 +3116,7 @@
         <v>26</v>
       </c>
       <c r="G95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H95" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1">
@@ -3141,7 +3141,7 @@
         <v>58</v>
       </c>
       <c r="G96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H96" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97">
@@ -3166,7 +3166,7 @@
         <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H97" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3175,10 +3175,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98">
@@ -3191,7 +3191,7 @@
         <v>120</v>
       </c>
       <c r="G98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H98" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1">
@@ -3216,7 +3216,7 @@
         <v>124</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H99" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1">
@@ -3241,7 +3241,7 @@
         <v>123</v>
       </c>
       <c r="G100" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H100" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3250,10 +3250,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1">
@@ -3266,7 +3266,7 @@
         <v>145</v>
       </c>
       <c r="G101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H101" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1">
@@ -3291,7 +3291,7 @@
         <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H102" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3300,10 +3300,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1">
@@ -3316,7 +3316,7 @@
         <v>61</v>
       </c>
       <c r="G103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H103" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3325,10 +3325,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1">
@@ -3341,7 +3341,7 @@
         <v>4</v>
       </c>
       <c r="G104" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H104" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3350,10 +3350,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1">
@@ -3366,7 +3366,7 @@
         <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H105" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3375,10 +3375,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1">
@@ -3391,7 +3391,7 @@
         <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H106" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1">
@@ -3416,7 +3416,7 @@
         <v>77</v>
       </c>
       <c r="G107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H107" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3425,10 +3425,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1">
@@ -3441,7 +3441,7 @@
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H108" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1">
@@ -3466,7 +3466,7 @@
         <v>52</v>
       </c>
       <c r="G109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H109" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1">
@@ -3491,7 +3491,7 @@
         <v>36</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H110" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1">
@@ -3516,7 +3516,7 @@
         <v>55</v>
       </c>
       <c r="G111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H111" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1">
@@ -3541,7 +3541,7 @@
         <v>62</v>
       </c>
       <c r="G112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H112" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3550,10 +3550,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1">
@@ -3566,7 +3566,7 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H113" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3575,16 +3575,16 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E114">
         <v>650</v>
       </c>
       <c r="G114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H114" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E115">
         <v>650</v>
       </c>
       <c r="G115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H115" s="4" t="str">
         <f t="shared" si="1"/>

--- a/fifty_one/measurements/test images.xlsx
+++ b/fifty_one/measurements/test images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilbenor/Documents/code projects/msc/counting_research_algorithms/fifty_one/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1F512F-4153-DA44-A11E-B4F301E7FAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A48D3B-9EB6-7F4F-B633-F9330604FCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="140">
   <si>
     <t>file name</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>height(mm)</t>
+  </si>
+  <si>
+    <t>height(mm)111</t>
   </si>
 </sst>
 </file>
@@ -803,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -833,7 +836,7 @@
     <col min="25" max="25" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -847,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -858,8 +861,11 @@
       <c r="H1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -880,8 +886,12 @@
         <f>CONCATENATE("GX010", TEXT(G2, "0"))</f>
         <v>GX010067_625</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>E2-10</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -901,8 +911,12 @@
         <f t="shared" ref="H3:H66" si="0">CONCATENATE("GX010", TEXT(G3, "0"))</f>
         <v>GX010068_666</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="1">E3-10</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -923,8 +937,12 @@
         <f t="shared" si="0"/>
         <v>GX010068_795</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -945,8 +963,12 @@
         <f t="shared" si="0"/>
         <v>GX010069_191</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -967,8 +989,12 @@
         <f t="shared" si="0"/>
         <v>GX010069_796</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -992,8 +1018,12 @@
         <f t="shared" si="0"/>
         <v>GX010071_444</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1017,8 +1047,12 @@
         <f t="shared" si="0"/>
         <v>GX010101_173</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -1042,8 +1076,12 @@
         <f t="shared" si="0"/>
         <v>GX010102_1396</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1067,8 +1105,12 @@
         <f t="shared" si="0"/>
         <v>GX010102_165</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -1092,8 +1134,12 @@
         <f t="shared" si="0"/>
         <v>GX010105_816</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1117,8 +1163,12 @@
         <f t="shared" si="0"/>
         <v>GX010128_52</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1142,8 +1192,12 @@
         <f t="shared" si="0"/>
         <v>GX010128_54</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1167,8 +1221,12 @@
         <f t="shared" si="0"/>
         <v>GX010129_454</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1192,8 +1250,12 @@
         <f t="shared" si="0"/>
         <v>GX010139_2020</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1217,8 +1279,12 @@
         <f t="shared" si="0"/>
         <v>GX010144_3581</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1242,8 +1308,12 @@
         <f t="shared" si="0"/>
         <v>GX010145_2273</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1255,7 +1325,7 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="F18" s="1">
         <v>12</v>
@@ -1267,8 +1337,12 @@
         <f t="shared" si="0"/>
         <v>GX010152_378</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1292,8 +1366,12 @@
         <f t="shared" si="0"/>
         <v>GX010154_4137</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -1313,8 +1391,12 @@
         <f t="shared" si="0"/>
         <v>GX010154_933</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -1334,8 +1416,12 @@
         <f t="shared" si="0"/>
         <v>GX010155_1170</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -1361,8 +1447,12 @@
         <f t="shared" si="0"/>
         <v>GX010155_219</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -1382,8 +1472,12 @@
         <f t="shared" si="0"/>
         <v>GX010156_629</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1409,8 +1503,12 @@
         <f t="shared" si="0"/>
         <v>GX010156_662</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1430,8 +1528,12 @@
         <f t="shared" si="0"/>
         <v>GX010157_2240</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -1451,8 +1553,12 @@
         <f t="shared" si="0"/>
         <v>GX010157_2259</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -1472,8 +1578,12 @@
         <f t="shared" si="0"/>
         <v>GX010157_2554</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -1499,8 +1609,12 @@
         <f t="shared" si="0"/>
         <v>GX010157_2582</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -1526,8 +1640,12 @@
         <f t="shared" si="0"/>
         <v>GX010157_2665</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1547,8 +1665,12 @@
         <f t="shared" si="0"/>
         <v>GX010157_4575</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1574,8 +1696,12 @@
         <f t="shared" si="0"/>
         <v>GX010157_4691</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1601,8 +1727,12 @@
         <f t="shared" si="0"/>
         <v>GX010157_5053</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1622,8 +1752,12 @@
         <f t="shared" si="0"/>
         <v>GX010157_5205</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -1649,8 +1783,12 @@
         <f t="shared" si="0"/>
         <v>GX010157_883</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1674,8 +1812,12 @@
         <f t="shared" si="0"/>
         <v>GX010158_1158</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1695,8 +1837,12 @@
         <f t="shared" si="0"/>
         <v>GX010161_2267</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1716,8 +1862,12 @@
         <f t="shared" si="0"/>
         <v>GX010161_676</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1743,8 +1893,12 @@
         <f t="shared" si="0"/>
         <v>GX010161_9576</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1770,8 +1924,12 @@
         <f t="shared" si="0"/>
         <v>GX010162_2037</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1791,8 +1949,12 @@
         <f t="shared" si="0"/>
         <v>GX010162_2230</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1812,8 +1974,12 @@
         <f t="shared" si="0"/>
         <v>GX010162_2433</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1839,8 +2005,12 @@
         <f t="shared" si="0"/>
         <v>GX010162_2604</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1866,8 +2036,12 @@
         <f t="shared" si="0"/>
         <v>GX010162_3958</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1887,8 +2061,12 @@
         <f t="shared" si="0"/>
         <v>GX010162_4175</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1914,8 +2092,12 @@
         <f t="shared" si="0"/>
         <v>GX010162_687</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1941,8 +2123,12 @@
         <f t="shared" si="0"/>
         <v>GX010162_927</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1968,8 +2154,12 @@
         <f t="shared" si="0"/>
         <v>GX010163_798</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1989,8 +2179,12 @@
         <f t="shared" si="0"/>
         <v>GX010163_864</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -2010,8 +2204,12 @@
         <f t="shared" si="0"/>
         <v>GX010169_1249</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2037,8 +2235,12 @@
         <f t="shared" si="0"/>
         <v>GX010170_1546</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2058,8 +2260,12 @@
         <f t="shared" si="0"/>
         <v>GX010171_1483</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2079,8 +2285,12 @@
         <f t="shared" si="0"/>
         <v>GX010173_922</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2104,8 +2314,12 @@
         <f t="shared" si="0"/>
         <v>GX010174_1236</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2125,8 +2339,12 @@
         <f t="shared" si="0"/>
         <v>GX010174_2266</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2150,8 +2368,12 @@
         <f t="shared" si="0"/>
         <v>GX010174_2291</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2171,8 +2393,12 @@
         <f t="shared" si="0"/>
         <v>GX010174_790</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2196,8 +2422,12 @@
         <f t="shared" si="0"/>
         <v>GX010175_2644</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2217,8 +2447,12 @@
         <f t="shared" si="0"/>
         <v>GX010175_3372</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2238,8 +2472,12 @@
         <f t="shared" si="0"/>
         <v>GX010175_852</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2263,8 +2501,12 @@
         <f t="shared" si="0"/>
         <v>GX010175_865</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2288,8 +2530,12 @@
         <f t="shared" si="0"/>
         <v>GX010176_1622</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -2309,8 +2555,12 @@
         <f t="shared" si="0"/>
         <v>GX010177_3047</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -2334,8 +2584,12 @@
         <f t="shared" si="0"/>
         <v>GX010177_454</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2359,8 +2613,12 @@
         <f t="shared" si="0"/>
         <v>GX010178_2118</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2380,8 +2638,12 @@
         <f t="shared" si="0"/>
         <v>GX010178_2258</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -2401,8 +2663,12 @@
         <f t="shared" si="0"/>
         <v>GX010178_3604</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -2423,11 +2689,15 @@
         <v>63</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H115" si="1">CONCATENATE("GX010", TEXT(G67, "0"))</f>
+        <f t="shared" ref="H67:H115" si="2">CONCATENATE("GX010", TEXT(G67, "0"))</f>
         <v>GX010178_3987</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <f t="shared" ref="I67:I115" si="3">E67-10</f>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -2448,11 +2718,15 @@
         <v>65</v>
       </c>
       <c r="H68" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010179_1697</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -2473,11 +2747,15 @@
         <v>66</v>
       </c>
       <c r="H69" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010179_3535</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -2494,11 +2772,15 @@
         <v>93</v>
       </c>
       <c r="H70" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010179_3927</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -2519,11 +2801,15 @@
         <v>67</v>
       </c>
       <c r="H71" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010179_3942</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -2544,11 +2830,15 @@
         <v>64</v>
       </c>
       <c r="H72" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010179_869</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>62</v>
       </c>
@@ -2569,11 +2859,15 @@
         <v>22</v>
       </c>
       <c r="H73" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010180_1563</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>62</v>
       </c>
@@ -2594,11 +2888,15 @@
         <v>24</v>
       </c>
       <c r="H74" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010180_1788</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -2619,11 +2917,15 @@
         <v>25</v>
       </c>
       <c r="H75" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010181_1542</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -2644,11 +2946,15 @@
         <v>27</v>
       </c>
       <c r="H76" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010182_1468</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>62</v>
       </c>
@@ -2669,11 +2975,15 @@
         <v>28</v>
       </c>
       <c r="H77" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010182_1822</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -2694,11 +3004,15 @@
         <v>26</v>
       </c>
       <c r="H78" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010182_894</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>62</v>
       </c>
@@ -2719,11 +3033,15 @@
         <v>30</v>
       </c>
       <c r="H79" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010183_1633</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>62</v>
       </c>
@@ -2744,11 +3062,15 @@
         <v>31</v>
       </c>
       <c r="H80" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010183_2852</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>62</v>
       </c>
@@ -2769,11 +3091,15 @@
         <v>29</v>
       </c>
       <c r="H81" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010183_685</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>62</v>
       </c>
@@ -2794,11 +3120,15 @@
         <v>33</v>
       </c>
       <c r="H82" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010184_1969</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>62</v>
       </c>
@@ -2819,11 +3149,15 @@
         <v>32</v>
       </c>
       <c r="H83" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010184_890</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -2844,11 +3178,15 @@
         <v>104</v>
       </c>
       <c r="H84" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010073_1014</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -2869,11 +3207,15 @@
         <v>105</v>
       </c>
       <c r="H85" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010073_695</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -2894,11 +3236,15 @@
         <v>106</v>
       </c>
       <c r="H86" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010077_237</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>69</v>
       </c>
@@ -2919,11 +3265,15 @@
         <v>107</v>
       </c>
       <c r="H87" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010080_2283</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>69</v>
       </c>
@@ -2944,11 +3294,15 @@
         <v>108</v>
       </c>
       <c r="H88" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010080_2640</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>69</v>
       </c>
@@ -2969,11 +3323,15 @@
         <v>109</v>
       </c>
       <c r="H89" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010080_2954</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -2994,11 +3352,15 @@
         <v>110</v>
       </c>
       <c r="H90" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010080_3366</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -3019,11 +3381,15 @@
         <v>111</v>
       </c>
       <c r="H91" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010080_3392</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>69</v>
       </c>
@@ -3044,11 +3410,15 @@
         <v>112</v>
       </c>
       <c r="H92" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010082_1070</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>69</v>
       </c>
@@ -3069,11 +3439,15 @@
         <v>113</v>
       </c>
       <c r="H93" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010082_3137</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>69</v>
       </c>
@@ -3094,11 +3468,15 @@
         <v>114</v>
       </c>
       <c r="H94" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010082_59</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>69</v>
       </c>
@@ -3119,11 +3497,15 @@
         <v>115</v>
       </c>
       <c r="H95" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010082_796</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -3144,11 +3526,15 @@
         <v>116</v>
       </c>
       <c r="H96" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010084_1748</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -3169,11 +3555,15 @@
         <v>131</v>
       </c>
       <c r="H97" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010084_344</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -3194,11 +3584,15 @@
         <v>117</v>
       </c>
       <c r="H98" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010085_3610</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>69</v>
       </c>
@@ -3219,11 +3613,15 @@
         <v>118</v>
       </c>
       <c r="H99" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010085_3738</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>69</v>
       </c>
@@ -3244,11 +3642,15 @@
         <v>119</v>
       </c>
       <c r="H100" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010088_3712</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>69</v>
       </c>
@@ -3269,11 +3671,15 @@
         <v>120</v>
       </c>
       <c r="H101" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010088_4364</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>69</v>
       </c>
@@ -3294,11 +3700,15 @@
         <v>121</v>
       </c>
       <c r="H102" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010089_236</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <f t="shared" si="3"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>69</v>
       </c>
@@ -3319,11 +3729,15 @@
         <v>122</v>
       </c>
       <c r="H103" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010090_1852</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>69</v>
       </c>
@@ -3344,11 +3758,15 @@
         <v>123</v>
       </c>
       <c r="H104" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010091_149</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <f t="shared" si="3"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>70</v>
       </c>
@@ -3369,11 +3787,15 @@
         <v>124</v>
       </c>
       <c r="H105" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010094_1258</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -3394,11 +3816,15 @@
         <v>125</v>
       </c>
       <c r="H106" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010094_129</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>70</v>
       </c>
@@ -3419,11 +3845,15 @@
         <v>126</v>
       </c>
       <c r="H107" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010094_2312</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>70</v>
       </c>
@@ -3444,11 +3874,15 @@
         <v>133</v>
       </c>
       <c r="H108" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010094_430</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>70</v>
       </c>
@@ -3469,11 +3903,15 @@
         <v>127</v>
       </c>
       <c r="H109" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010096_1571</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>70</v>
       </c>
@@ -3494,11 +3932,15 @@
         <v>128</v>
       </c>
       <c r="H110" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010097_1080</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>70</v>
       </c>
@@ -3519,11 +3961,15 @@
         <v>129</v>
       </c>
       <c r="H111" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010097_1651</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>70</v>
       </c>
@@ -3544,11 +3990,15 @@
         <v>134</v>
       </c>
       <c r="H112" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010097_1870</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>70</v>
       </c>
@@ -3569,11 +4019,15 @@
         <v>130</v>
       </c>
       <c r="H113" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010097_528</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>69</v>
       </c>
@@ -3587,11 +4041,15 @@
         <v>132</v>
       </c>
       <c r="H114" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010088_2904</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114">
+        <f t="shared" si="3"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -3605,8 +4063,12 @@
         <v>136</v>
       </c>
       <c r="H115" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GX010084_2291</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="3"/>
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/fifty_one/measurements/test images.xlsx
+++ b/fifty_one/measurements/test images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilbenor/Documents/code projects/msc/counting_research_algorithms/fifty_one/measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A48D3B-9EB6-7F4F-B633-F9330604FCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2CD7F0-97F8-DF47-A525-44ECB1BBAFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="139">
   <si>
     <t>file name</t>
   </si>
@@ -456,9 +456,6 @@
   </si>
   <si>
     <t>height(mm)</t>
-  </si>
-  <si>
-    <t>height(mm)111</t>
   </si>
 </sst>
 </file>
@@ -806,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,6 +819,7 @@
     <col min="6" max="6" width="22.1640625" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
     <col min="16" max="16" width="4.1640625" customWidth="1"/>
@@ -836,7 +834,7 @@
     <col min="25" max="25" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -850,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -861,11 +859,8 @@
       <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="I1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -886,12 +881,8 @@
         <f>CONCATENATE("GX010", TEXT(G2, "0"))</f>
         <v>GX010067_625</v>
       </c>
-      <c r="I2">
-        <f>E2-10</f>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -911,12 +902,8 @@
         <f t="shared" ref="H3:H66" si="0">CONCATENATE("GX010", TEXT(G3, "0"))</f>
         <v>GX010068_666</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I66" si="1">E3-10</f>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -937,12 +924,8 @@
         <f t="shared" si="0"/>
         <v>GX010068_795</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -963,12 +946,8 @@
         <f t="shared" si="0"/>
         <v>GX010069_191</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -989,12 +968,8 @@
         <f t="shared" si="0"/>
         <v>GX010069_796</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1018,12 +993,8 @@
         <f t="shared" si="0"/>
         <v>GX010071_444</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1047,12 +1018,8 @@
         <f t="shared" si="0"/>
         <v>GX010101_173</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -1076,12 +1043,8 @@
         <f t="shared" si="0"/>
         <v>GX010102_1396</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1105,12 +1068,8 @@
         <f t="shared" si="0"/>
         <v>GX010102_165</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -1134,12 +1093,8 @@
         <f t="shared" si="0"/>
         <v>GX010105_816</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1163,12 +1118,8 @@
         <f t="shared" si="0"/>
         <v>GX010128_52</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1192,12 +1143,8 @@
         <f t="shared" si="0"/>
         <v>GX010128_54</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1221,12 +1168,8 @@
         <f t="shared" si="0"/>
         <v>GX010129_454</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1250,12 +1193,8 @@
         <f t="shared" si="0"/>
         <v>GX010139_2020</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1279,12 +1218,8 @@
         <f t="shared" si="0"/>
         <v>GX010144_3581</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1308,12 +1243,8 @@
         <f t="shared" si="0"/>
         <v>GX010145_2273</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1337,12 +1268,8 @@
         <f t="shared" si="0"/>
         <v>GX010152_378</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1366,12 +1293,8 @@
         <f t="shared" si="0"/>
         <v>GX010154_4137</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -1391,12 +1314,8 @@
         <f t="shared" si="0"/>
         <v>GX010154_933</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -1416,12 +1335,8 @@
         <f t="shared" si="0"/>
         <v>GX010155_1170</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -1447,12 +1362,8 @@
         <f t="shared" si="0"/>
         <v>GX010155_219</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -1472,12 +1383,8 @@
         <f t="shared" si="0"/>
         <v>GX010156_629</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1503,12 +1410,8 @@
         <f t="shared" si="0"/>
         <v>GX010156_662</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1528,12 +1431,8 @@
         <f t="shared" si="0"/>
         <v>GX010157_2240</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -1553,12 +1452,8 @@
         <f t="shared" si="0"/>
         <v>GX010157_2259</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -1578,12 +1473,8 @@
         <f t="shared" si="0"/>
         <v>GX010157_2554</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -1609,12 +1500,8 @@
         <f t="shared" si="0"/>
         <v>GX010157_2582</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -1640,12 +1527,8 @@
         <f t="shared" si="0"/>
         <v>GX010157_2665</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1665,12 +1548,8 @@
         <f t="shared" si="0"/>
         <v>GX010157_4575</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1696,12 +1575,8 @@
         <f t="shared" si="0"/>
         <v>GX010157_4691</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1727,12 +1602,8 @@
         <f t="shared" si="0"/>
         <v>GX010157_5053</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1752,12 +1623,8 @@
         <f t="shared" si="0"/>
         <v>GX010157_5205</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -1783,12 +1650,8 @@
         <f t="shared" si="0"/>
         <v>GX010157_883</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1812,12 +1675,8 @@
         <f t="shared" si="0"/>
         <v>GX010158_1158</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1837,12 +1696,8 @@
         <f t="shared" si="0"/>
         <v>GX010161_2267</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1862,12 +1717,8 @@
         <f t="shared" si="0"/>
         <v>GX010161_676</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1893,12 +1744,8 @@
         <f t="shared" si="0"/>
         <v>GX010161_9576</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1924,12 +1771,8 @@
         <f t="shared" si="0"/>
         <v>GX010162_2037</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1949,12 +1792,8 @@
         <f t="shared" si="0"/>
         <v>GX010162_2230</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1974,12 +1813,8 @@
         <f t="shared" si="0"/>
         <v>GX010162_2433</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2005,12 +1840,8 @@
         <f t="shared" si="0"/>
         <v>GX010162_2604</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2036,12 +1867,8 @@
         <f t="shared" si="0"/>
         <v>GX010162_3958</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2061,12 +1888,8 @@
         <f t="shared" si="0"/>
         <v>GX010162_4175</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2092,12 +1915,8 @@
         <f t="shared" si="0"/>
         <v>GX010162_687</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2123,12 +1942,8 @@
         <f t="shared" si="0"/>
         <v>GX010162_927</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2154,12 +1969,8 @@
         <f t="shared" si="0"/>
         <v>GX010163_798</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2179,12 +1990,8 @@
         <f t="shared" si="0"/>
         <v>GX010163_864</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -2204,12 +2011,8 @@
         <f t="shared" si="0"/>
         <v>GX010169_1249</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2235,12 +2038,8 @@
         <f t="shared" si="0"/>
         <v>GX010170_1546</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2260,12 +2059,8 @@
         <f t="shared" si="0"/>
         <v>GX010171_1483</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2285,12 +2080,8 @@
         <f t="shared" si="0"/>
         <v>GX010173_922</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2314,12 +2105,8 @@
         <f t="shared" si="0"/>
         <v>GX010174_1236</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2339,12 +2126,8 @@
         <f t="shared" si="0"/>
         <v>GX010174_2266</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2368,12 +2151,8 @@
         <f t="shared" si="0"/>
         <v>GX010174_2291</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2393,12 +2172,8 @@
         <f t="shared" si="0"/>
         <v>GX010174_790</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2422,12 +2197,8 @@
         <f t="shared" si="0"/>
         <v>GX010175_2644</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2447,12 +2218,8 @@
         <f t="shared" si="0"/>
         <v>GX010175_3372</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2472,12 +2239,8 @@
         <f t="shared" si="0"/>
         <v>GX010175_852</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2501,12 +2264,8 @@
         <f t="shared" si="0"/>
         <v>GX010175_865</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2530,12 +2289,8 @@
         <f t="shared" si="0"/>
         <v>GX010176_1622</v>
       </c>
-      <c r="I61">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -2555,12 +2310,8 @@
         <f t="shared" si="0"/>
         <v>GX010177_3047</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -2584,12 +2335,8 @@
         <f t="shared" si="0"/>
         <v>GX010177_454</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2613,12 +2360,8 @@
         <f t="shared" si="0"/>
         <v>GX010178_2118</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="1"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2638,12 +2381,8 @@
         <f t="shared" si="0"/>
         <v>GX010178_2258</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="1"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -2663,12 +2402,8 @@
         <f t="shared" si="0"/>
         <v>GX010178_3604</v>
       </c>
-      <c r="I66">
-        <f t="shared" si="1"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -2689,15 +2424,11 @@
         <v>63</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H115" si="2">CONCATENATE("GX010", TEXT(G67, "0"))</f>
+        <f t="shared" ref="H67:H115" si="1">CONCATENATE("GX010", TEXT(G67, "0"))</f>
         <v>GX010178_3987</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I67:I115" si="3">E67-10</f>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -2718,15 +2449,11 @@
         <v>65</v>
       </c>
       <c r="H68" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010179_1697</v>
       </c>
-      <c r="I68">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -2747,15 +2474,11 @@
         <v>66</v>
       </c>
       <c r="H69" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010179_3535</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -2772,15 +2495,11 @@
         <v>93</v>
       </c>
       <c r="H70" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010179_3927</v>
       </c>
-      <c r="I70">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -2801,15 +2520,11 @@
         <v>67</v>
       </c>
       <c r="H71" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010179_3942</v>
       </c>
-      <c r="I71">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -2830,15 +2545,11 @@
         <v>64</v>
       </c>
       <c r="H72" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010179_869</v>
       </c>
-      <c r="I72">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>62</v>
       </c>
@@ -2859,15 +2570,11 @@
         <v>22</v>
       </c>
       <c r="H73" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010180_1563</v>
       </c>
-      <c r="I73">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>62</v>
       </c>
@@ -2888,15 +2595,11 @@
         <v>24</v>
       </c>
       <c r="H74" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010180_1788</v>
       </c>
-      <c r="I74">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -2917,15 +2620,11 @@
         <v>25</v>
       </c>
       <c r="H75" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010181_1542</v>
       </c>
-      <c r="I75">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -2946,15 +2645,11 @@
         <v>27</v>
       </c>
       <c r="H76" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010182_1468</v>
       </c>
-      <c r="I76">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>62</v>
       </c>
@@ -2975,15 +2670,11 @@
         <v>28</v>
       </c>
       <c r="H77" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010182_1822</v>
       </c>
-      <c r="I77">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -3004,15 +2695,11 @@
         <v>26</v>
       </c>
       <c r="H78" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010182_894</v>
       </c>
-      <c r="I78">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>62</v>
       </c>
@@ -3033,15 +2720,11 @@
         <v>30</v>
       </c>
       <c r="H79" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010183_1633</v>
       </c>
-      <c r="I79">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>62</v>
       </c>
@@ -3062,15 +2745,11 @@
         <v>31</v>
       </c>
       <c r="H80" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010183_2852</v>
       </c>
-      <c r="I80">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>62</v>
       </c>
@@ -3091,15 +2770,11 @@
         <v>29</v>
       </c>
       <c r="H81" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010183_685</v>
       </c>
-      <c r="I81">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>62</v>
       </c>
@@ -3120,15 +2795,11 @@
         <v>33</v>
       </c>
       <c r="H82" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010184_1969</v>
       </c>
-      <c r="I82">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>62</v>
       </c>
@@ -3149,15 +2820,11 @@
         <v>32</v>
       </c>
       <c r="H83" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010184_890</v>
       </c>
-      <c r="I83">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -3178,15 +2845,11 @@
         <v>104</v>
       </c>
       <c r="H84" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010073_1014</v>
       </c>
-      <c r="I84">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -3207,15 +2870,11 @@
         <v>105</v>
       </c>
       <c r="H85" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010073_695</v>
       </c>
-      <c r="I85">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -3236,15 +2895,11 @@
         <v>106</v>
       </c>
       <c r="H86" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010077_237</v>
       </c>
-      <c r="I86">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>69</v>
       </c>
@@ -3265,15 +2920,11 @@
         <v>107</v>
       </c>
       <c r="H87" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010080_2283</v>
       </c>
-      <c r="I87">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>69</v>
       </c>
@@ -3294,15 +2945,11 @@
         <v>108</v>
       </c>
       <c r="H88" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010080_2640</v>
       </c>
-      <c r="I88">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>69</v>
       </c>
@@ -3323,15 +2970,11 @@
         <v>109</v>
       </c>
       <c r="H89" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010080_2954</v>
       </c>
-      <c r="I89">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -3352,15 +2995,11 @@
         <v>110</v>
       </c>
       <c r="H90" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010080_3366</v>
       </c>
-      <c r="I90">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -3381,15 +3020,11 @@
         <v>111</v>
       </c>
       <c r="H91" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010080_3392</v>
       </c>
-      <c r="I91">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>69</v>
       </c>
@@ -3410,15 +3045,11 @@
         <v>112</v>
       </c>
       <c r="H92" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010082_1070</v>
       </c>
-      <c r="I92">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>69</v>
       </c>
@@ -3439,15 +3070,11 @@
         <v>113</v>
       </c>
       <c r="H93" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010082_3137</v>
       </c>
-      <c r="I93">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>69</v>
       </c>
@@ -3468,15 +3095,11 @@
         <v>114</v>
       </c>
       <c r="H94" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010082_59</v>
       </c>
-      <c r="I94">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>69</v>
       </c>
@@ -3497,15 +3120,11 @@
         <v>115</v>
       </c>
       <c r="H95" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010082_796</v>
       </c>
-      <c r="I95">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -3526,15 +3145,11 @@
         <v>116</v>
       </c>
       <c r="H96" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010084_1748</v>
       </c>
-      <c r="I96">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -3555,15 +3170,11 @@
         <v>131</v>
       </c>
       <c r="H97" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010084_344</v>
       </c>
-      <c r="I97">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -3584,15 +3195,11 @@
         <v>117</v>
       </c>
       <c r="H98" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010085_3610</v>
       </c>
-      <c r="I98">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>69</v>
       </c>
@@ -3613,15 +3220,11 @@
         <v>118</v>
       </c>
       <c r="H99" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010085_3738</v>
       </c>
-      <c r="I99">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>69</v>
       </c>
@@ -3642,15 +3245,11 @@
         <v>119</v>
       </c>
       <c r="H100" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010088_3712</v>
       </c>
-      <c r="I100">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>69</v>
       </c>
@@ -3671,15 +3270,11 @@
         <v>120</v>
       </c>
       <c r="H101" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010088_4364</v>
       </c>
-      <c r="I101">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>69</v>
       </c>
@@ -3700,15 +3295,11 @@
         <v>121</v>
       </c>
       <c r="H102" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010089_236</v>
       </c>
-      <c r="I102">
-        <f t="shared" si="3"/>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>69</v>
       </c>
@@ -3729,15 +3320,11 @@
         <v>122</v>
       </c>
       <c r="H103" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010090_1852</v>
       </c>
-      <c r="I103">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>69</v>
       </c>
@@ -3758,15 +3345,11 @@
         <v>123</v>
       </c>
       <c r="H104" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010091_149</v>
       </c>
-      <c r="I104">
-        <f t="shared" si="3"/>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>70</v>
       </c>
@@ -3787,15 +3370,11 @@
         <v>124</v>
       </c>
       <c r="H105" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010094_1258</v>
       </c>
-      <c r="I105">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -3816,15 +3395,11 @@
         <v>125</v>
       </c>
       <c r="H106" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010094_129</v>
       </c>
-      <c r="I106">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>70</v>
       </c>
@@ -3845,15 +3420,11 @@
         <v>126</v>
       </c>
       <c r="H107" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010094_2312</v>
       </c>
-      <c r="I107">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>70</v>
       </c>
@@ -3874,15 +3445,11 @@
         <v>133</v>
       </c>
       <c r="H108" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010094_430</v>
       </c>
-      <c r="I108">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>70</v>
       </c>
@@ -3903,15 +3470,11 @@
         <v>127</v>
       </c>
       <c r="H109" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010096_1571</v>
       </c>
-      <c r="I109">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>70</v>
       </c>
@@ -3932,15 +3495,11 @@
         <v>128</v>
       </c>
       <c r="H110" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010097_1080</v>
       </c>
-      <c r="I110">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>70</v>
       </c>
@@ -3961,15 +3520,11 @@
         <v>129</v>
       </c>
       <c r="H111" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010097_1651</v>
       </c>
-      <c r="I111">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>70</v>
       </c>
@@ -3990,15 +3545,11 @@
         <v>134</v>
       </c>
       <c r="H112" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010097_1870</v>
       </c>
-      <c r="I112">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>70</v>
       </c>
@@ -4019,15 +3570,11 @@
         <v>130</v>
       </c>
       <c r="H113" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010097_528</v>
       </c>
-      <c r="I113">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>69</v>
       </c>
@@ -4041,15 +3588,11 @@
         <v>132</v>
       </c>
       <c r="H114" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010088_2904</v>
       </c>
-      <c r="I114">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -4063,12 +3606,8 @@
         <v>136</v>
       </c>
       <c r="H115" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>GX010084_2291</v>
-      </c>
-      <c r="I115">
-        <f t="shared" si="3"/>
-        <v>640</v>
       </c>
     </row>
   </sheetData>
